--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.8113570555349</v>
+        <v>136.5550741186757</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.458207959796</v>
+        <v>186.8406767937799</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.3351789896483</v>
+        <v>169.0088648331711</v>
       </c>
       <c r="AD2" t="n">
-        <v>115811.3570555349</v>
+        <v>136555.0741186757</v>
       </c>
       <c r="AE2" t="n">
-        <v>158458.207959796</v>
+        <v>186840.6767937799</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.549540085429009e-06</v>
+        <v>7.691223245313454e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>143335.1789896483</v>
+        <v>169008.8648331711</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.88654492094776</v>
+        <v>110.7155133301091</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.9867362752802</v>
+        <v>151.4858497619133</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.2490547781682</v>
+        <v>137.0282528724031</v>
       </c>
       <c r="AD3" t="n">
-        <v>89886.54492094775</v>
+        <v>110715.5133301091</v>
       </c>
       <c r="AE3" t="n">
-        <v>122986.7362752802</v>
+        <v>151485.8497619133</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.183868917730862e-06</v>
+        <v>8.76358760930663e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.908420138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>111249.0547781682</v>
+        <v>137028.2528724031</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.08823573898822</v>
+        <v>118.1841200806876</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.2086514855795</v>
+        <v>161.7047270097252</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.399966150857</v>
+        <v>146.2718548179714</v>
       </c>
       <c r="AD2" t="n">
-        <v>98088.23573898822</v>
+        <v>118184.1200806876</v>
       </c>
       <c r="AE2" t="n">
-        <v>134208.6514855795</v>
+        <v>161704.7270097252</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.167053511410864e-06</v>
+        <v>8.94825680624528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.055989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>121399.966150857</v>
+        <v>146271.8548179714</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.02353529796531</v>
+        <v>118.1194196396647</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.12012548779</v>
+        <v>161.6162010119357</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.3198889500495</v>
+        <v>146.1917776171639</v>
       </c>
       <c r="AD3" t="n">
-        <v>98023.53529796531</v>
+        <v>118119.4196396647</v>
       </c>
       <c r="AE3" t="n">
-        <v>134120.12548779</v>
+        <v>161616.2010119357</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.183376520989502e-06</v>
+        <v>8.976524847448627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.04296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>121319.8889500495</v>
+        <v>146191.7776171639</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.6386244849157</v>
+        <v>129.8694452188972</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.748891168709</v>
+        <v>177.693104383977</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.1707513800243</v>
+        <v>160.7343238954583</v>
       </c>
       <c r="AD2" t="n">
-        <v>111638.6244849157</v>
+        <v>129869.4452188972</v>
       </c>
       <c r="AE2" t="n">
-        <v>152748.8911687089</v>
+        <v>177693.104383977</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.536604406144277e-06</v>
+        <v>8.58423176705482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>138170.7513800243</v>
+        <v>160734.3238954583</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.80977374792603</v>
+        <v>116.8883761604423</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.8276475045324</v>
+        <v>159.9318330138591</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.0553246550185</v>
+        <v>144.6681633367978</v>
       </c>
       <c r="AD2" t="n">
-        <v>97809.77374792602</v>
+        <v>116888.3761604423</v>
       </c>
       <c r="AE2" t="n">
-        <v>133827.6475045324</v>
+        <v>159931.8330138591</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.925665482750196e-06</v>
+        <v>8.973492779252923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.542100694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>121055.3246550185</v>
+        <v>144668.1633367979</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.8988021655946</v>
+        <v>154.9387203247202</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.0508306847285</v>
+        <v>211.9939925621084</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.3940496510102</v>
+        <v>191.7615834474786</v>
       </c>
       <c r="AD2" t="n">
-        <v>119898.8021655946</v>
+        <v>154938.7203247201</v>
       </c>
       <c r="AE2" t="n">
-        <v>164050.8306847285</v>
+        <v>211993.9925621084</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.060412343451051e-06</v>
+        <v>7.957099926408069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.983072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>148394.0496510103</v>
+        <v>191761.5834474786</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.80450693459265</v>
+        <v>120.070668568604</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.5569294519456</v>
+        <v>164.2859858795363</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.5241277639428</v>
+        <v>148.6067619640681</v>
       </c>
       <c r="AD2" t="n">
-        <v>99804.50693459265</v>
+        <v>120070.668568604</v>
       </c>
       <c r="AE2" t="n">
-        <v>136556.9294519456</v>
+        <v>164285.9858795363</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.118053848196283e-06</v>
+        <v>8.805515463716444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.058159722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>123524.1277639428</v>
+        <v>148606.7619640681</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.80413731806385</v>
+        <v>119.0702989520752</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.1881796094189</v>
+        <v>162.9172360370096</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.2860094853338</v>
+        <v>147.3686436854592</v>
       </c>
       <c r="AD3" t="n">
-        <v>98804.13731806385</v>
+        <v>119070.2989520752</v>
       </c>
       <c r="AE3" t="n">
-        <v>135188.1796094189</v>
+        <v>162917.2360370096</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.175867660134016e-06</v>
+        <v>8.90498304067707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.012586805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>122286.0094853339</v>
+        <v>147368.6436854592</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.4297191405706</v>
+        <v>171.8142802176836</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.037404699351</v>
+        <v>235.083878104808</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.0913787070529</v>
+        <v>212.6478027208482</v>
       </c>
       <c r="AD2" t="n">
-        <v>137429.7191405706</v>
+        <v>171814.2802176836</v>
       </c>
       <c r="AE2" t="n">
-        <v>188037.404699351</v>
+        <v>235083.878104808</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.696000998983686e-06</v>
+        <v>7.409226754559273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.725260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>170091.3787070529</v>
+        <v>212647.8027208482</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.19243845644269</v>
+        <v>116.7356905990517</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.9829821238144</v>
+        <v>159.7229218927531</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.2912729527406</v>
+        <v>144.4791903998815</v>
       </c>
       <c r="AD2" t="n">
-        <v>97192.43845644269</v>
+        <v>116735.6905990517</v>
       </c>
       <c r="AE2" t="n">
-        <v>132982.9821238144</v>
+        <v>159722.9218927531</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.097870428454801e-06</v>
+        <v>9.028707335740939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.236111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>120291.2729527406</v>
+        <v>144479.1903998815</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.57075801091374</v>
+        <v>117.4898900525442</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.5006156285222</v>
+        <v>160.7548508579525</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.7595042422625</v>
+        <v>145.412633512964</v>
       </c>
       <c r="AD2" t="n">
-        <v>97570.75801091373</v>
+        <v>117489.8900525442</v>
       </c>
       <c r="AE2" t="n">
-        <v>133500.6156285222</v>
+        <v>160754.8508579525</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.156362785418202e-06</v>
+        <v>8.992246448273542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.103732638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>120759.5042422625</v>
+        <v>145412.633512964</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.86525472767249</v>
+        <v>117.7843867693029</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.9035590286695</v>
+        <v>161.1577942580998</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.1239912898345</v>
+        <v>145.777120560536</v>
       </c>
       <c r="AD3" t="n">
-        <v>97865.25472767249</v>
+        <v>117784.3867693029</v>
       </c>
       <c r="AE3" t="n">
-        <v>133903.5590286696</v>
+        <v>161157.7942580998</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.155777765814683e-06</v>
+        <v>8.99122622516845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.103732638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>121123.9912898345</v>
+        <v>145777.120560536</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.52197172495</v>
+        <v>128.1115710266279</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.1163052486247</v>
+        <v>175.2879033621793</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.0757315547671</v>
+        <v>158.5586718834593</v>
       </c>
       <c r="AD2" t="n">
-        <v>107521.97172495</v>
+        <v>128111.5710266279</v>
       </c>
       <c r="AE2" t="n">
-        <v>147116.3052486247</v>
+        <v>175287.9033621793</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.832389660828558e-06</v>
+        <v>8.214742150121051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.227430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>133075.7315547671</v>
+        <v>158558.6718834593</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.30442380562951</v>
+        <v>109.979274453328</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.1902524839311</v>
+        <v>150.478495250135</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.5285862819932</v>
+        <v>136.1170388613976</v>
       </c>
       <c r="AD3" t="n">
-        <v>89304.42380562951</v>
+        <v>109979.274453328</v>
       </c>
       <c r="AE3" t="n">
-        <v>122190.2524839311</v>
+        <v>150478.495250135</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.191334373594642e-06</v>
+        <v>8.824924372267656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.934461805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>110528.5862819931</v>
+        <v>136117.0388613976</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.53935994285132</v>
+        <v>116.6704013191385</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.4576554066143</v>
+        <v>159.6335902196161</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.7206440836384</v>
+        <v>144.3983844162508</v>
       </c>
       <c r="AD2" t="n">
-        <v>97539.35994285133</v>
+        <v>116670.4013191385</v>
       </c>
       <c r="AE2" t="n">
-        <v>133457.6554066143</v>
+        <v>159633.5902196161</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.990982385189463e-06</v>
+        <v>8.999922306281088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>120720.6440836384</v>
+        <v>144398.3844162509</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.14721025793</v>
+        <v>127.8170309017867</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.0258312579391</v>
+        <v>174.8849005691786</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.9482782396801</v>
+        <v>158.1941311114045</v>
       </c>
       <c r="AD2" t="n">
-        <v>100147.21025793</v>
+        <v>127817.0309017867</v>
       </c>
       <c r="AE2" t="n">
-        <v>137025.8312579391</v>
+        <v>174884.9005691786</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.701008225310727e-06</v>
+        <v>8.770578705289836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123948.2782396801</v>
+        <v>158194.1311114045</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.9039884206588</v>
+        <v>141.8044563601365</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.2167061632802</v>
+        <v>194.023113162943</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.2121643821328</v>
+        <v>175.5058195558762</v>
       </c>
       <c r="AD2" t="n">
-        <v>114903.9884206588</v>
+        <v>141804.4563601365</v>
       </c>
       <c r="AE2" t="n">
-        <v>157216.7061632802</v>
+        <v>194023.113162943</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.327253736824138e-06</v>
+        <v>8.321469406093057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.501302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>142212.1643821328</v>
+        <v>175505.8195558762</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.6019726678774</v>
+        <v>204.1249883222668</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.4251454319294</v>
+        <v>279.292814381315</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.1473771662227</v>
+        <v>252.6375001667713</v>
       </c>
       <c r="AD2" t="n">
-        <v>170601.9726678774</v>
+        <v>204124.9883222668</v>
       </c>
       <c r="AE2" t="n">
-        <v>233425.1454319294</v>
+        <v>279292.814381315</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.184075034648456e-06</v>
+        <v>6.567471005633955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.025173611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>211147.3771662227</v>
+        <v>252637.5001667713</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.1743147338607</v>
+        <v>116.9095153282146</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.9581844470155</v>
+        <v>159.9607565557995</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.2688419314117</v>
+        <v>144.6943264564898</v>
       </c>
       <c r="AD2" t="n">
-        <v>97174.31473386069</v>
+        <v>116909.5153282146</v>
       </c>
       <c r="AE2" t="n">
-        <v>132958.1844470155</v>
+        <v>159960.7565557995</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.139298383315609e-06</v>
+        <v>9.029544525595502e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.157986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>120268.8419314117</v>
+        <v>144694.3264564899</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.2079076975004</v>
+        <v>123.6384698963107</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.2136125231986</v>
+        <v>169.1676090563881</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.7363835385725</v>
+        <v>153.0224898763239</v>
       </c>
       <c r="AD2" t="n">
-        <v>103207.9076975004</v>
+        <v>123638.4698963107</v>
       </c>
       <c r="AE2" t="n">
-        <v>141213.6125231986</v>
+        <v>169167.6090563881</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.989495492211199e-06</v>
+        <v>8.531481250351053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.127604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>127736.3835385725</v>
+        <v>153022.4898763239</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.66345591273063</v>
+        <v>119.2664945208337</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.3132519353596</v>
+        <v>163.1856794697224</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.735285434899</v>
+        <v>147.6114672537168</v>
       </c>
       <c r="AD3" t="n">
-        <v>88663.45591273063</v>
+        <v>119266.4945208337</v>
       </c>
       <c r="AE3" t="n">
-        <v>121313.2519353596</v>
+        <v>163185.6794697224</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.199878183137847e-06</v>
+        <v>8.891212206284566e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.960503472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>109735.285434899</v>
+        <v>147611.4672537168</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.5702827094964</v>
+        <v>270.312512655411</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.1622357939809</v>
+        <v>369.8535051615441</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.2288575007633</v>
+        <v>334.5552057215802</v>
       </c>
       <c r="AD2" t="n">
-        <v>221570.2827094964</v>
+        <v>270312.512655411</v>
       </c>
       <c r="AE2" t="n">
-        <v>303162.2357939809</v>
+        <v>369853.5051615441</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.449426096248996e-06</v>
+        <v>5.250248306557483e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.80295138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>274228.8575007633</v>
+        <v>334555.2057215802</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.85195628924318</v>
+        <v>126.9013473599094</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.2536076354106</v>
+        <v>173.6320219500759</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.3451931523537</v>
+        <v>157.0608254692823</v>
       </c>
       <c r="AD2" t="n">
-        <v>98851.95628924317</v>
+        <v>126901.3473599094</v>
       </c>
       <c r="AE2" t="n">
-        <v>135253.6076354106</v>
+        <v>173632.0219500758</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.822385163607353e-06</v>
+        <v>8.884919322233143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.702690972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>122345.1931523537</v>
+        <v>157060.8254692823</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.30378832333733</v>
+        <v>116.6460654591212</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.135335924109</v>
+        <v>159.6002928223182</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.4290863201651</v>
+        <v>144.3682648758178</v>
       </c>
       <c r="AD2" t="n">
-        <v>97303.78832333733</v>
+        <v>116646.0654591213</v>
       </c>
       <c r="AE2" t="n">
-        <v>133135.335924109</v>
+        <v>159600.2928223182</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.049337527235171e-06</v>
+        <v>9.020273000434855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.325086805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>120429.086320165</v>
+        <v>144368.2648758178</v>
       </c>
     </row>
   </sheetData>
